--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\OR\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A087090-F36B-49FB-AD2C-B21EDE82DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C9A642-A807-4756-A25E-14DE91A76A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="1155" windowWidth="12720" windowHeight="15900" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="TTS-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="TTS-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="934">
   <si>
     <t>Source:</t>
   </si>
@@ -2849,6 +2849,9 @@
   </si>
   <si>
     <t>Oregon</t>
+  </si>
+  <si>
+    <t>The start year sales of BEVs and PHEVs are calibrated to align with historical sales data for OR.</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3104,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3173,6 +3176,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3272,97 +3276,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>2.4033772409275102E-2</c:v>
+                  <c:v>7.4887649419425717E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7990463902214007E-2</c:v>
+                  <c:v>9.417345795032335E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4672141180370439E-2</c:v>
+                  <c:v>0.1032871987387747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4425050578744395E-2</c:v>
+                  <c:v>0.11645411735054872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.851539693126743E-2</c:v>
+                  <c:v>0.13519719887825843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8572975946212357E-2</c:v>
+                  <c:v>0.1613231604029563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11653121412856901</c:v>
+                  <c:v>0.19669319302928648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15438183240150175</c:v>
+                  <c:v>0.24273318775760036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20365072293828868</c:v>
+                  <c:v>0.29969098214894485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26460310474553878</c:v>
+                  <c:v>0.36588418351227603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33543859487742256</c:v>
+                  <c:v>0.43744382470971288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41201688620463761</c:v>
+                  <c:v>0.50900346590714973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48859517753185266</c:v>
+                  <c:v>0.57519666727048091</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55943066766373639</c:v>
+                  <c:v>0.63215446166182543</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62038304947098644</c:v>
+                  <c:v>0.6781944563901392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66965194000777339</c:v>
+                  <c:v>0.71356448901646941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70750255828070607</c:v>
+                  <c:v>0.73969045054116733</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73546079646306284</c:v>
+                  <c:v>0.75843353206887709</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75551837547800771</c:v>
+                  <c:v>0.77160045068065108</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76960872183053075</c:v>
+                  <c:v>0.78071419146910237</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.77936163122890467</c:v>
+                  <c:v>0.78695797701635206</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78604330850706117</c:v>
+                  <c:v>0.7912055219996893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.79058874405867341</c:v>
+                  <c:v>0.79408121884435112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.79366612045484164</c:v>
+                  <c:v>0.79602181690903184</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79574281733955832</c:v>
+                  <c:v>0.79732851214641731</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79714115426369558</c:v>
+                  <c:v>0.79820707041079275</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.79808132793689279</c:v>
+                  <c:v>0.7987971828496091</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.79871282638349361</c:v>
+                  <c:v>0.79919328638210718</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.79913670961152272</c:v>
+                  <c:v>0.79945904527869593</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7994211068201339</c:v>
+                  <c:v>0.79963729799948258</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.79961186083390279</c:v>
+                  <c:v>0.79975683347863002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,18 +4554,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.1796875" style="15"/>
+    <col min="2" max="2" width="56.26953125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>915</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4580,502 +4584,502 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="47" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
         <v>55</v>
       </c>
@@ -5102,13 +5106,13 @@
       <selection activeCell="B3" sqref="B3:AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>0.79121052298324024</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>6.482659698878529E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -6125,13 +6129,13 @@
       <selection activeCell="B3" sqref="B3:AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>0.79121380721100476</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +6878,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>5.7770540436378859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -7148,13 +7152,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7412,7 +7416,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7897,7 +7901,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -8171,13 +8175,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8435,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8951,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -9223,13 +9227,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9487,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10003,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -10132,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -10275,13 +10279,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10539,7 +10543,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10668,7 +10672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10797,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11055,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11327,13 +11331,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11462,7 +11466,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11849,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -11978,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12107,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -12236,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -12379,13 +12383,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -12514,7 +12518,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12901,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13030,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -13288,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -13431,13 +13435,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -13566,7 +13570,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13695,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13824,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -13953,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14082,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -14340,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -14485,13 +14489,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -14620,7 +14624,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -14749,7 +14753,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14878,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15007,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15136,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15265,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -15394,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -15534,9 +15538,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15634,27 +15638,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>157</v>
       </c>
@@ -15761,7 +15765,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -15769,7 +15773,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -15777,7 +15781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -15887,7 +15891,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -15997,7 +16001,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -16115,7 +16119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -16335,7 +16339,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -16445,7 +16449,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -16555,7 +16559,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -16665,7 +16669,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -16775,7 +16779,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -16885,7 +16889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -16995,7 +16999,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -17105,7 +17109,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -17215,7 +17219,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -17325,7 +17329,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -17435,7 +17439,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -17545,7 +17549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -17655,7 +17659,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -17875,7 +17879,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -17985,7 +17989,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>226</v>
       </c>
@@ -17993,7 +17997,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -18001,7 +18005,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>169</v>
       </c>
@@ -18221,7 +18225,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -18331,7 +18335,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>237</v>
       </c>
@@ -18339,7 +18343,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -18449,7 +18453,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -18559,7 +18563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -18669,7 +18673,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -18779,7 +18783,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -18889,7 +18893,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -18999,7 +19003,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -19109,7 +19113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -19219,7 +19223,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>201</v>
       </c>
@@ -19329,7 +19333,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -19439,7 +19443,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>207</v>
       </c>
@@ -19549,7 +19553,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>210</v>
       </c>
@@ -19659,7 +19663,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>212</v>
       </c>
@@ -19769,7 +19773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -19879,7 +19883,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -19989,7 +19993,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20099,7 +20103,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20319,7 +20323,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20429,7 +20433,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20539,7 +20543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>280</v>
       </c>
@@ -20550,7 +20554,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>283</v>
       </c>
@@ -20660,7 +20664,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>286</v>
       </c>
@@ -20770,7 +20774,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>289</v>
       </c>
@@ -20880,7 +20884,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>292</v>
       </c>
@@ -20990,7 +20994,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>295</v>
       </c>
@@ -21100,7 +21104,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -21210,7 +21214,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>301</v>
       </c>
@@ -21320,7 +21324,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>304</v>
       </c>
@@ -21430,7 +21434,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21540,7 +21544,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>309</v>
       </c>
@@ -21650,7 +21654,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>312</v>
       </c>
@@ -21760,7 +21764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -21882,15 +21886,17 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -22019,7 +22025,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22117,7 +22123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22215,7 +22221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22313,7 +22319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22411,7 +22417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22509,7 +22515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -22607,7 +22613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -22721,9 +22727,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -22821,27 +22827,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>157</v>
       </c>
@@ -22948,7 +22954,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -22956,7 +22962,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -22964,7 +22970,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -23074,7 +23080,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -23184,7 +23190,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -23294,7 +23300,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -23302,7 +23308,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -23412,7 +23418,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -23522,7 +23528,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -23632,7 +23638,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -23742,7 +23748,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -23852,7 +23858,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -23962,7 +23968,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -24072,7 +24078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -24182,7 +24188,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -24292,7 +24298,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -24402,7 +24408,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -24512,7 +24518,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -24622,7 +24628,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>212</v>
       </c>
@@ -24732,7 +24738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -24842,7 +24848,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -24952,7 +24958,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -25062,7 +25068,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>340</v>
       </c>
@@ -25070,7 +25076,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>228</v>
       </c>
@@ -25078,7 +25084,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -25188,7 +25194,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -25298,7 +25304,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -25408,7 +25414,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -25416,7 +25422,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -25526,7 +25532,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -25636,7 +25642,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -25746,7 +25752,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -25856,7 +25862,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -25966,7 +25972,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -26076,7 +26082,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -26186,7 +26192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -26296,7 +26302,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -26406,7 +26412,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -26516,7 +26522,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -26626,7 +26632,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>210</v>
       </c>
@@ -26736,7 +26742,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>212</v>
       </c>
@@ -26846,7 +26852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -26956,7 +26962,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>267</v>
       </c>
@@ -27066,7 +27072,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -27176,7 +27182,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -27303,9 +27309,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -27403,27 +27409,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>157</v>
       </c>
@@ -27530,7 +27536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -27538,7 +27544,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>410</v>
       </c>
@@ -27546,7 +27552,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>411</v>
       </c>
@@ -27554,7 +27560,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>412</v>
       </c>
@@ -27664,7 +27670,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -27774,7 +27780,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>416</v>
       </c>
@@ -27884,7 +27890,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>418</v>
       </c>
@@ -27994,7 +28000,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>420</v>
       </c>
@@ -28104,7 +28110,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>292</v>
       </c>
@@ -28214,7 +28220,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -28324,7 +28330,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -28434,7 +28440,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -28544,7 +28550,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>428</v>
       </c>
@@ -28654,7 +28660,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>430</v>
       </c>
@@ -28662,7 +28668,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -28772,7 +28778,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>414</v>
       </c>
@@ -28882,7 +28888,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>416</v>
       </c>
@@ -28992,7 +28998,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -29102,7 +29108,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>420</v>
       </c>
@@ -29212,7 +29218,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -29322,7 +29328,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>423</v>
       </c>
@@ -29432,7 +29438,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -29542,7 +29548,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -29652,7 +29658,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>440</v>
       </c>
@@ -29762,7 +29768,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -29770,7 +29776,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>412</v>
       </c>
@@ -29880,7 +29886,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>414</v>
       </c>
@@ -29990,7 +29996,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>416</v>
       </c>
@@ -30100,7 +30106,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>418</v>
       </c>
@@ -30210,7 +30216,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -30320,7 +30326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>292</v>
       </c>
@@ -30430,7 +30436,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>423</v>
       </c>
@@ -30540,7 +30546,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>425</v>
       </c>
@@ -30650,7 +30656,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -30760,7 +30766,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>452</v>
       </c>
@@ -30870,7 +30876,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>454</v>
       </c>
@@ -30980,7 +30986,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>456</v>
       </c>
@@ -30988,7 +30994,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>411</v>
       </c>
@@ -30996,7 +31002,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>412</v>
       </c>
@@ -31106,7 +31112,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>414</v>
       </c>
@@ -31216,7 +31222,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>416</v>
       </c>
@@ -31326,7 +31332,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>418</v>
       </c>
@@ -31436,7 +31442,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>420</v>
       </c>
@@ -31546,7 +31552,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>292</v>
       </c>
@@ -31656,7 +31662,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>423</v>
       </c>
@@ -31766,7 +31772,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>425</v>
       </c>
@@ -31876,7 +31882,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>304</v>
       </c>
@@ -31986,7 +31992,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>428</v>
       </c>
@@ -32096,7 +32102,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>430</v>
       </c>
@@ -32104,7 +32110,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>412</v>
       </c>
@@ -32214,7 +32220,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>414</v>
       </c>
@@ -32324,7 +32330,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>416</v>
       </c>
@@ -32434,7 +32440,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>418</v>
       </c>
@@ -32544,7 +32550,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>420</v>
       </c>
@@ -32654,7 +32660,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>292</v>
       </c>
@@ -32764,7 +32770,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>423</v>
       </c>
@@ -32874,7 +32880,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>425</v>
       </c>
@@ -32984,7 +32990,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -33094,7 +33100,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>440</v>
       </c>
@@ -33204,7 +33210,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>442</v>
       </c>
@@ -33212,7 +33218,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -33322,7 +33328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>414</v>
       </c>
@@ -33432,7 +33438,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>416</v>
       </c>
@@ -33542,7 +33548,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>418</v>
       </c>
@@ -33652,7 +33658,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>420</v>
       </c>
@@ -33762,7 +33768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>292</v>
       </c>
@@ -33872,7 +33878,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -33982,7 +33988,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>425</v>
       </c>
@@ -34092,7 +34098,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>304</v>
       </c>
@@ -34202,7 +34208,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>452</v>
       </c>
@@ -34312,7 +34318,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>411</v>
       </c>
@@ -34323,7 +34329,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>412</v>
       </c>
@@ -34433,7 +34439,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -34543,7 +34549,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>416</v>
       </c>
@@ -34653,7 +34659,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>418</v>
       </c>
@@ -34763,7 +34769,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>420</v>
       </c>
@@ -34873,7 +34879,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -34983,7 +34989,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>423</v>
       </c>
@@ -35093,7 +35099,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>425</v>
       </c>
@@ -35203,7 +35209,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>304</v>
       </c>
@@ -35313,7 +35319,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>497</v>
       </c>
@@ -35423,7 +35429,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>499</v>
       </c>
@@ -35431,7 +35437,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>411</v>
       </c>
@@ -35439,7 +35445,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>412</v>
       </c>
@@ -35549,7 +35555,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>414</v>
       </c>
@@ -35659,7 +35665,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>416</v>
       </c>
@@ -35769,7 +35775,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>418</v>
       </c>
@@ -35879,7 +35885,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -35989,7 +35995,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>292</v>
       </c>
@@ -36099,7 +36105,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -36209,7 +36215,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>425</v>
       </c>
@@ -36319,7 +36325,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>304</v>
       </c>
@@ -36429,7 +36435,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>509</v>
       </c>
@@ -36536,7 +36542,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>430</v>
       </c>
@@ -36544,7 +36550,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>412</v>
       </c>
@@ -36654,7 +36660,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>414</v>
       </c>
@@ -36764,7 +36770,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>416</v>
       </c>
@@ -36874,7 +36880,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>418</v>
       </c>
@@ -36984,7 +36990,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>420</v>
       </c>
@@ -37094,7 +37100,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -37204,7 +37210,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>423</v>
       </c>
@@ -37314,7 +37320,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>425</v>
       </c>
@@ -37424,7 +37430,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>304</v>
       </c>
@@ -37534,7 +37540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>520</v>
       </c>
@@ -37641,7 +37647,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -37649,7 +37655,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>412</v>
       </c>
@@ -37759,7 +37765,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>414</v>
       </c>
@@ -37869,7 +37875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>416</v>
       </c>
@@ -37979,7 +37985,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>418</v>
       </c>
@@ -38089,7 +38095,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>420</v>
       </c>
@@ -38199,7 +38205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -38309,7 +38315,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>423</v>
       </c>
@@ -38419,7 +38425,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>425</v>
       </c>
@@ -38529,7 +38535,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>304</v>
       </c>
@@ -38639,7 +38645,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>531</v>
       </c>
@@ -38746,7 +38752,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>533</v>
       </c>
@@ -38853,7 +38859,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>535</v>
       </c>
@@ -38861,7 +38867,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>411</v>
       </c>
@@ -38869,7 +38875,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>412</v>
       </c>
@@ -38979,7 +38985,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>414</v>
       </c>
@@ -39089,7 +39095,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>416</v>
       </c>
@@ -39199,7 +39205,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>418</v>
       </c>
@@ -39309,7 +39315,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>420</v>
       </c>
@@ -39419,7 +39425,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>292</v>
       </c>
@@ -39529,7 +39535,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>423</v>
       </c>
@@ -39639,7 +39645,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -39749,7 +39755,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>304</v>
       </c>
@@ -39859,7 +39865,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -39969,7 +39975,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -39977,7 +39983,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -40087,7 +40093,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>414</v>
       </c>
@@ -40197,7 +40203,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -40307,7 +40313,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>418</v>
       </c>
@@ -40417,7 +40423,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>420</v>
       </c>
@@ -40527,7 +40533,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -40637,7 +40643,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>423</v>
       </c>
@@ -40747,7 +40753,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>425</v>
       </c>
@@ -40857,7 +40863,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -40967,7 +40973,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>440</v>
       </c>
@@ -41077,7 +41083,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>442</v>
       </c>
@@ -41085,7 +41091,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>412</v>
       </c>
@@ -41195,7 +41201,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>414</v>
       </c>
@@ -41305,7 +41311,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>416</v>
       </c>
@@ -41415,7 +41421,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>418</v>
       </c>
@@ -41525,7 +41531,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>420</v>
       </c>
@@ -41635,7 +41641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>292</v>
       </c>
@@ -41745,7 +41751,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>423</v>
       </c>
@@ -41855,7 +41861,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>425</v>
       </c>
@@ -41965,7 +41971,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>304</v>
       </c>
@@ -42075,7 +42081,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>452</v>
       </c>
@@ -42185,7 +42191,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -42295,7 +42301,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -42303,7 +42309,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>499</v>
       </c>
@@ -42311,7 +42317,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>411</v>
       </c>
@@ -42319,7 +42325,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>412</v>
       </c>
@@ -42429,7 +42435,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>414</v>
       </c>
@@ -42539,7 +42545,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>416</v>
       </c>
@@ -42649,7 +42655,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>418</v>
       </c>
@@ -42759,7 +42765,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>420</v>
       </c>
@@ -42869,7 +42875,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>292</v>
       </c>
@@ -42979,7 +42985,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>423</v>
       </c>
@@ -43089,7 +43095,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -43199,7 +43205,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>304</v>
       </c>
@@ -43309,7 +43315,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>509</v>
       </c>
@@ -43416,7 +43422,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -43424,7 +43430,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>412</v>
       </c>
@@ -43534,7 +43540,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>414</v>
       </c>
@@ -43644,7 +43650,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>416</v>
       </c>
@@ -43754,7 +43760,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>418</v>
       </c>
@@ -43864,7 +43870,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>420</v>
       </c>
@@ -43974,7 +43980,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>292</v>
       </c>
@@ -44084,7 +44090,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>423</v>
       </c>
@@ -44194,7 +44200,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>425</v>
       </c>
@@ -44304,7 +44310,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>304</v>
       </c>
@@ -44414,7 +44420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>520</v>
       </c>
@@ -44521,7 +44527,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>442</v>
       </c>
@@ -44529,7 +44535,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>412</v>
       </c>
@@ -44639,7 +44645,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>414</v>
       </c>
@@ -44749,7 +44755,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>416</v>
       </c>
@@ -44859,7 +44865,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>418</v>
       </c>
@@ -44969,7 +44975,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>420</v>
       </c>
@@ -45079,7 +45085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>292</v>
       </c>
@@ -45189,7 +45195,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>423</v>
       </c>
@@ -45299,7 +45305,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>425</v>
       </c>
@@ -45409,7 +45415,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>304</v>
       </c>
@@ -45519,7 +45525,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>531</v>
       </c>
@@ -45626,7 +45632,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>533</v>
       </c>
@@ -45733,7 +45739,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>598</v>
       </c>
@@ -45741,7 +45747,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>411</v>
       </c>
@@ -45749,7 +45755,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>412</v>
       </c>
@@ -45859,7 +45865,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>414</v>
       </c>
@@ -45969,7 +45975,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>416</v>
       </c>
@@ -46079,7 +46085,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>418</v>
       </c>
@@ -46189,7 +46195,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>420</v>
       </c>
@@ -46299,7 +46305,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>292</v>
       </c>
@@ -46409,7 +46415,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>423</v>
       </c>
@@ -46519,7 +46525,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>425</v>
       </c>
@@ -46629,7 +46635,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>304</v>
       </c>
@@ -46739,7 +46745,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>428</v>
       </c>
@@ -46849,7 +46855,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>430</v>
       </c>
@@ -46857,7 +46863,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>412</v>
       </c>
@@ -46967,7 +46973,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>414</v>
       </c>
@@ -47077,7 +47083,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>416</v>
       </c>
@@ -47187,7 +47193,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>418</v>
       </c>
@@ -47297,7 +47303,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>420</v>
       </c>
@@ -47407,7 +47413,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>292</v>
       </c>
@@ -47517,7 +47523,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -47627,7 +47633,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>425</v>
       </c>
@@ -47737,7 +47743,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>304</v>
       </c>
@@ -47847,7 +47853,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>440</v>
       </c>
@@ -47957,7 +47963,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>442</v>
       </c>
@@ -47965,7 +47971,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>412</v>
       </c>
@@ -48075,7 +48081,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>414</v>
       </c>
@@ -48185,7 +48191,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>416</v>
       </c>
@@ -48295,7 +48301,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>418</v>
       </c>
@@ -48405,7 +48411,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>420</v>
       </c>
@@ -48515,7 +48521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -48625,7 +48631,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>423</v>
       </c>
@@ -48735,7 +48741,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>425</v>
       </c>
@@ -48845,7 +48851,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>304</v>
       </c>
@@ -48955,7 +48961,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>452</v>
       </c>
@@ -49065,7 +49071,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>280</v>
       </c>
@@ -49175,7 +49181,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -49183,7 +49189,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>630</v>
       </c>
@@ -49293,7 +49299,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>632</v>
       </c>
@@ -49403,7 +49409,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>634</v>
       </c>
@@ -49411,7 +49417,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>635</v>
       </c>
@@ -49521,7 +49527,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>637</v>
       </c>
@@ -49631,7 +49637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>639</v>
       </c>
@@ -49741,7 +49747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>641</v>
       </c>
@@ -49851,7 +49857,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -49859,7 +49865,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>643</v>
       </c>
@@ -49969,7 +49975,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>632</v>
       </c>
@@ -50079,7 +50085,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>634</v>
       </c>
@@ -50087,7 +50093,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>635</v>
       </c>
@@ -50197,7 +50203,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>637</v>
       </c>
@@ -50307,7 +50313,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>639</v>
       </c>
@@ -50417,7 +50423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>641</v>
       </c>
@@ -50527,7 +50533,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -50535,7 +50541,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>650</v>
       </c>
@@ -50645,7 +50651,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>652</v>
       </c>
@@ -50755,7 +50761,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>654</v>
       </c>
@@ -50865,7 +50871,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>634</v>
       </c>
@@ -50873,7 +50879,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>635</v>
       </c>
@@ -50983,7 +50989,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>637</v>
       </c>
@@ -51093,7 +51099,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>639</v>
       </c>
@@ -51203,7 +51209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>641</v>
       </c>
@@ -51327,18 +51333,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -51364,7 +51370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51391,7 +51397,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51419,7 +51425,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51445,7 +51451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51471,7 +51477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51497,7 +51503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51523,11 +51529,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -51549,19 +51555,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -51587,7 +51593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -51615,7 +51621,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -51642,7 +51648,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -51668,7 +51674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -51694,7 +51700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -51720,7 +51726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -51746,7 +51752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -51762,153 +51768,153 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD48"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E34" s="15">
         <v>2020</v>
       </c>
@@ -51943,7 +51949,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>142</v>
       </c>
@@ -51981,7 +51987,7 @@
         <v>0.23878898573568191</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="41" t="s">
         <v>141</v>
       </c>
@@ -52019,7 +52025,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="41" t="s">
         <v>925</v>
       </c>
@@ -52039,7 +52045,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -52053,6 +52059,11 @@
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="49" t="s">
+        <v>933</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52069,23 +52080,23 @@
   <dimension ref="A1:AL92"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.1796875" style="15"/>
+    <col min="8" max="9" width="9.1796875" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
@@ -52104,7 +52115,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -52121,7 +52132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -52138,7 +52149,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -52152,15 +52163,15 @@
         <v>101</v>
       </c>
       <c r="O4" s="27">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -52174,7 +52185,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -52188,7 +52199,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -52330,7 +52341,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -52341,8 +52352,8 @@
         <v>1</v>
       </c>
       <c r="D9" s="29">
-        <f>INDEX('AEO 38'!68:68,0,MATCH(2030,'AEO 38'!1:1,0))/INDEX('AEO 38'!73:73,MATCH(2021,'AEO 38'!1:1,0))</f>
-        <v>2.4033772409275102E-2</v>
+        <f>INDEX('AEO 38'!68:68,0,MATCH(2043,'AEO 38'!1:1,0))/INDEX('AEO 38'!73:73,MATCH(2021,'AEO 38'!1:1,0))</f>
+        <v>7.4887649419425717E-2</v>
       </c>
       <c r="E9" s="15">
         <v>0.8</v>
@@ -52352,131 +52363,131 @@
         <v>s-curve</v>
       </c>
       <c r="H9" s="29">
-        <f t="shared" ref="H9:H39" si="1">D9</f>
-        <v>2.4033772409275102E-2</v>
+        <f>D9</f>
+        <v>7.4887649419425717E-2</v>
       </c>
       <c r="I9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:I$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,I$8))</f>
-        <v>3.7990463902214007E-2</v>
+        <v>9.417345795032335E-2</v>
       </c>
       <c r="J9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:J$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,J$8))</f>
-        <v>4.4672141180370439E-2</v>
+        <v>0.1032871987387747</v>
       </c>
       <c r="K9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:K$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,K$8))</f>
-        <v>5.4425050578744395E-2</v>
+        <v>0.11645411735054872</v>
       </c>
       <c r="L9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:L$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,L$8))</f>
-        <v>6.851539693126743E-2</v>
+        <v>0.13519719887825843</v>
       </c>
       <c r="M9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:M$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,M$8))</f>
-        <v>8.8572975946212357E-2</v>
+        <v>0.1613231604029563</v>
       </c>
       <c r="N9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:N$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,N$8))</f>
-        <v>0.11653121412856901</v>
+        <v>0.19669319302928648</v>
       </c>
       <c r="O9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:O$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,O$8))</f>
-        <v>0.15438183240150175</v>
+        <v>0.24273318775760036</v>
       </c>
       <c r="P9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:P$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,P$8))</f>
-        <v>0.20365072293828868</v>
+        <v>0.29969098214894485</v>
       </c>
       <c r="Q9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:Q$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Q$8))</f>
-        <v>0.26460310474553878</v>
+        <v>0.36588418351227603</v>
       </c>
       <c r="R9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:R$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,R$8))</f>
-        <v>0.33543859487742256</v>
+        <v>0.43744382470971288</v>
       </c>
       <c r="S9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:S$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,S$8))</f>
-        <v>0.41201688620463761</v>
+        <v>0.50900346590714973</v>
       </c>
       <c r="T9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:T$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,T$8))</f>
-        <v>0.48859517753185266</v>
+        <v>0.57519666727048091</v>
       </c>
       <c r="U9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:U$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,U$8))</f>
-        <v>0.55943066766373639</v>
+        <v>0.63215446166182543</v>
       </c>
       <c r="V9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:V$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,V$8))</f>
-        <v>0.62038304947098644</v>
+        <v>0.6781944563901392</v>
       </c>
       <c r="W9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:W$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,W$8))</f>
-        <v>0.66965194000777339</v>
+        <v>0.71356448901646941</v>
       </c>
       <c r="X9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:X$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,X$8))</f>
-        <v>0.70750255828070607</v>
+        <v>0.73969045054116733</v>
       </c>
       <c r="Y9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:Y$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Y$8))</f>
-        <v>0.73546079646306284</v>
+        <v>0.75843353206887709</v>
       </c>
       <c r="Z9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:Z$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Z$8))</f>
-        <v>0.75551837547800771</v>
+        <v>0.77160045068065108</v>
       </c>
       <c r="AA9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AA$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AA$8))</f>
-        <v>0.76960872183053075</v>
+        <v>0.78071419146910237</v>
       </c>
       <c r="AB9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AB$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AB$8))</f>
-        <v>0.77936163122890467</v>
+        <v>0.78695797701635206</v>
       </c>
       <c r="AC9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AC$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AC$8))</f>
-        <v>0.78604330850706117</v>
+        <v>0.7912055219996893</v>
       </c>
       <c r="AD9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AD$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AD$8))</f>
-        <v>0.79058874405867341</v>
+        <v>0.79408121884435112</v>
       </c>
       <c r="AE9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AE$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AE$8))</f>
-        <v>0.79366612045484164</v>
+        <v>0.79602181690903184</v>
       </c>
       <c r="AF9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AF$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AF$8))</f>
-        <v>0.79574281733955832</v>
+        <v>0.79732851214641731</v>
       </c>
       <c r="AG9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AG$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AG$8))</f>
-        <v>0.79714115426369558</v>
+        <v>0.79820707041079275</v>
       </c>
       <c r="AH9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AH$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AH$8))</f>
-        <v>0.79808132793689279</v>
+        <v>0.7987971828496091</v>
       </c>
       <c r="AI9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AI$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AI$8))</f>
-        <v>0.79871282638349361</v>
+        <v>0.79919328638210718</v>
       </c>
       <c r="AJ9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AJ$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AJ$8))</f>
-        <v>0.79913670961152272</v>
+        <v>0.79945904527869593</v>
       </c>
       <c r="AK9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AK$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AK$8))</f>
-        <v>0.7994211068201339</v>
+        <v>0.79963729799948258</v>
       </c>
       <c r="AL9" s="15">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($H$8:AL$8)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AL$8))</f>
-        <v>0.79961186083390279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.79975683347863002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
@@ -52493,7 +52504,7 @@
         <v>s-curve</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H10:H39" si="1">D10</f>
         <v>3.8057610451262282E-4</v>
       </c>
       <c r="I10" s="15">
@@ -52617,7 +52628,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" s="15" t="s">
         <v>3</v>
       </c>
@@ -52756,7 +52767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
@@ -52897,13 +52908,13 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(D$8,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(D$8,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(D$8,'AEO 39'!$1:$1,0))</f>
-        <v>2.365708179750064E-3</v>
+        <f>E13/3.5</f>
+        <v>1.8727644408662782E-2</v>
       </c>
       <c r="E13" s="29">
         <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(E$8,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(E$8,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$8,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
@@ -52915,130 +52926,130 @@
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
-        <v>2.365708179750064E-3</v>
+        <v>1.8727644408662782E-2</v>
       </c>
       <c r="I13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:I$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,I$8))</f>
-        <v>3.2991469742441625E-3</v>
+        <v>1.9419351438747613E-2</v>
       </c>
       <c r="J13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:J$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,J$8))</f>
-        <v>3.6192394738005637E-3</v>
+        <v>1.9656549885530176E-2</v>
       </c>
       <c r="K13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:K$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,K$8))</f>
-        <v>4.0461340876531242E-3</v>
+        <v>1.997289200378036E-2</v>
       </c>
       <c r="L13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:L$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,L$8))</f>
-        <v>4.6131331699434466E-3</v>
+        <v>2.0393055868390707E-2</v>
       </c>
       <c r="M13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:M$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,M$8))</f>
-        <v>5.362124513881435E-3</v>
+        <v>2.0948081630262304E-2</v>
       </c>
       <c r="N13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:N$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,N$8))</f>
-        <v>6.3444307643141075E-3</v>
+        <v>2.1676000957301635E-2</v>
       </c>
       <c r="O13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:O$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,O$8))</f>
-        <v>7.6206462468898636E-3</v>
+        <v>2.2621716119782313E-2</v>
       </c>
       <c r="P13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:P$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,P$8))</f>
-        <v>9.2585595945970343E-3</v>
+        <v>2.3835460592330042E-2</v>
       </c>
       <c r="Q13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:Q$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,Q$8))</f>
-        <v>1.1328007013771409E-2</v>
+        <v>2.5368985164778986E-2</v>
       </c>
       <c r="R13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:R$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,R$8))</f>
-        <v>1.3891543819069384E-2</v>
+        <v>2.7268645260936503E-2</v>
       </c>
       <c r="S13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:S$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,S$8))</f>
-        <v>1.6990554770834474E-2</v>
+        <v>2.9565108268784356E-2</v>
       </c>
       <c r="T13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:T$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,T$8))</f>
-        <v>2.0628221312200351E-2</v>
+        <v>3.2260731736127882E-2</v>
       </c>
       <c r="U13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:U$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,U$8))</f>
-        <v>2.4753513839039468E-2</v>
+        <v>3.5317701147301275E-2</v>
       </c>
       <c r="V13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:V$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,V$8))</f>
-        <v>2.9252875632906142E-2</v>
+        <v>3.8651867460154629E-2</v>
       </c>
       <c r="W13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:W$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,W$8))</f>
-        <v>3.3956231805034896E-2</v>
+        <v>4.2137199919491261E-2</v>
       </c>
       <c r="X13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:X$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,X$8))</f>
-        <v>3.8659587977163651E-2</v>
+        <v>4.5622532378827886E-2</v>
       </c>
       <c r="Y13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:Y$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,Y$8))</f>
-        <v>4.3158949771030325E-2</v>
+        <v>4.8956698691681233E-2</v>
       </c>
       <c r="Z13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:Z$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,Z$8))</f>
-        <v>4.7284242297869442E-2</v>
+        <v>5.2013668102854627E-2</v>
       </c>
       <c r="AA13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AA$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AA$8))</f>
-        <v>5.0921908839235315E-2</v>
+        <v>5.470929157019816E-2</v>
       </c>
       <c r="AB13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AB$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AB$8))</f>
-        <v>5.4020919791000405E-2</v>
+        <v>5.7005754578046006E-2</v>
       </c>
       <c r="AC13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AC$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AC$8))</f>
-        <v>5.6584456596298391E-2</v>
+        <v>5.890541467420353E-2</v>
       </c>
       <c r="AD13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AD$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AD$8))</f>
-        <v>5.8653904015472762E-2</v>
+        <v>6.0438939246652473E-2</v>
       </c>
       <c r="AE13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AE$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AE$8))</f>
-        <v>6.0291817363179935E-2</v>
+        <v>6.1652683719200199E-2</v>
       </c>
       <c r="AF13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AF$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AF$8))</f>
-        <v>6.1568032845755689E-2</v>
+        <v>6.2598398881680881E-2</v>
       </c>
       <c r="AG13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AG$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AG$8))</f>
-        <v>6.2550339096188373E-2</v>
+        <v>6.3326318208720214E-2</v>
       </c>
       <c r="AH13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AH$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AH$8))</f>
-        <v>6.3299330440126353E-2</v>
+        <v>6.3881343970591808E-2</v>
       </c>
       <c r="AI13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AI$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AI$8))</f>
-        <v>6.3866329522416665E-2</v>
+        <v>6.4301507835202151E-2</v>
       </c>
       <c r="AJ13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AJ$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AJ$8))</f>
-        <v>6.4293224136269242E-2</v>
+        <v>6.461784995345235E-2</v>
       </c>
       <c r="AK13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AK$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AK$8))</f>
-        <v>6.4613316635825632E-2</v>
+        <v>6.4855048400234899E-2</v>
       </c>
       <c r="AL13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$8:AL$8)+$I$4))),TREND($D13:$E13,$D$8:$E$8,AL$8))</f>
-        <v>6.4852588888836923E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+        <v>6.5032356543509418E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" s="15" t="s">
         <v>125</v>
       </c>
@@ -53179,7 +53190,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
@@ -53322,7 +53333,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
@@ -53469,7 +53480,7 @@
         <v>0.79121052298324024</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
@@ -53609,7 +53620,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" s="15" t="s">
         <v>3</v>
       </c>
@@ -53748,7 +53759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" s="15" t="s">
         <v>4</v>
       </c>
@@ -53888,7 +53899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
@@ -54029,7 +54040,7 @@
         <v>6.482659698878529E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" s="15" t="s">
         <v>125</v>
       </c>
@@ -54170,7 +54181,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31" t="s">
@@ -54313,7 +54324,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -54459,7 +54470,7 @@
         <v>0.79121380721100476</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C24" s="15" t="s">
         <v>2</v>
       </c>
@@ -54600,7 +54611,7 @@
         <v>5.335006800310399E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" s="15" t="s">
         <v>3</v>
       </c>
@@ -54741,7 +54752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" s="15" t="s">
         <v>4</v>
       </c>
@@ -54880,7 +54891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" s="15" t="s">
         <v>5</v>
       </c>
@@ -55021,7 +55032,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" s="15" t="s">
         <v>125</v>
       </c>
@@ -55162,7 +55173,7 @@
         <v>5.7770540436378859E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31" t="s">
@@ -55305,7 +55316,7 @@
         <v>5.7030226513153766E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>13</v>
       </c>
@@ -55452,7 +55463,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C31" s="15" t="s">
         <v>2</v>
       </c>
@@ -55593,7 +55604,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" s="15" t="s">
         <v>3</v>
       </c>
@@ -55732,7 +55743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" s="15" t="s">
         <v>4</v>
       </c>
@@ -55871,7 +55882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" s="15" t="s">
         <v>5</v>
       </c>
@@ -56012,7 +56023,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" s="15" t="s">
         <v>125</v>
       </c>
@@ -56153,7 +56164,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31" t="s">
@@ -56296,7 +56307,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
@@ -56441,7 +56452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C38" s="15" t="s">
         <v>2</v>
       </c>
@@ -56580,7 +56591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" s="15" t="s">
         <v>3</v>
       </c>
@@ -56719,7 +56730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
       <c r="C40" s="15" t="s">
         <v>4</v>
@@ -56859,7 +56870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>5</v>
@@ -56999,7 +57010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>125</v>
@@ -57139,7 +57150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
@@ -57280,7 +57291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
         <v>14</v>
       </c>
@@ -57425,7 +57436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C45" s="15" t="s">
         <v>2</v>
       </c>
@@ -57564,7 +57575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" s="15" t="s">
         <v>3</v>
       </c>
@@ -57703,7 +57714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" s="15" t="s">
         <v>4</v>
       </c>
@@ -57842,7 +57853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" s="15" t="s">
         <v>5</v>
       </c>
@@ -57981,7 +57992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" s="15" t="s">
         <v>125</v>
       </c>
@@ -58120,7 +58131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31" t="s">
@@ -58261,7 +58272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>15</v>
       </c>
@@ -58407,7 +58418,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C52" s="15" t="s">
         <v>2</v>
       </c>
@@ -58546,7 +58557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" s="15" t="s">
         <v>3</v>
       </c>
@@ -58685,7 +58696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" s="15" t="s">
         <v>4</v>
       </c>
@@ -58825,7 +58836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="30"/>
       <c r="C55" s="15" t="s">
         <v>5</v>
@@ -58965,7 +58976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>125</v>
@@ -59105,7 +59116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31" t="s">
@@ -59246,7 +59257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
         <v>15</v>
       </c>
@@ -59391,7 +59402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="30"/>
       <c r="C59" s="15" t="s">
         <v>2</v>
@@ -59531,7 +59542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>3</v>
@@ -59671,7 +59682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C61" s="15" t="s">
         <v>4</v>
       </c>
@@ -59810,7 +59821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" s="15" t="s">
         <v>5</v>
       </c>
@@ -59949,7 +59960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" s="15" t="s">
         <v>125</v>
       </c>
@@ -60088,7 +60099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31" t="s">
@@ -60229,7 +60240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>16</v>
       </c>
@@ -60374,7 +60385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C66" s="15" t="s">
         <v>2</v>
       </c>
@@ -60513,7 +60524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" s="15" t="s">
         <v>3</v>
       </c>
@@ -60653,7 +60664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" s="15" t="s">
         <v>4</v>
       </c>
@@ -60793,7 +60804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" s="15" t="s">
         <v>5</v>
       </c>
@@ -60932,7 +60943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" s="15" t="s">
         <v>125</v>
       </c>
@@ -61071,7 +61082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
       <c r="C71" s="31" t="s">
@@ -61212,7 +61223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72" s="30" t="s">
         <v>16</v>
       </c>
@@ -61357,7 +61368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C73" s="15" t="s">
         <v>2</v>
       </c>
@@ -61496,7 +61507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" s="15" t="s">
         <v>3</v>
       </c>
@@ -61635,7 +61646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" s="15" t="s">
         <v>4</v>
       </c>
@@ -61774,7 +61785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" s="15" t="s">
         <v>5</v>
       </c>
@@ -61913,7 +61924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" s="15" t="s">
         <v>125</v>
       </c>
@@ -62052,7 +62063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31" t="s">
@@ -62193,7 +62204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>17</v>
       </c>
@@ -62339,7 +62350,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C80" s="15" t="s">
         <v>2</v>
       </c>
@@ -62479,7 +62490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" s="15" t="s">
         <v>3</v>
       </c>
@@ -62618,7 +62629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" s="15" t="s">
         <v>4</v>
       </c>
@@ -62758,7 +62769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" s="15" t="s">
         <v>5</v>
       </c>
@@ -62898,7 +62909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" s="15" t="s">
         <v>125</v>
       </c>
@@ -63038,7 +63049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31" t="s">
@@ -63180,7 +63191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A86" s="30" t="s">
         <v>17</v>
       </c>
@@ -63325,7 +63336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C87" s="15" t="s">
         <v>2</v>
       </c>
@@ -63464,7 +63475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" s="15" t="s">
         <v>3</v>
       </c>
@@ -63603,7 +63614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" s="15" t="s">
         <v>4</v>
       </c>
@@ -63742,7 +63753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" s="15" t="s">
         <v>5</v>
       </c>
@@ -63881,7 +63892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" s="15" t="s">
         <v>125</v>
       </c>
@@ -64020,7 +64031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31" t="s">
@@ -64179,13 +64190,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -64314,136 +64325,136 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15">
         <f>Data!H9</f>
-        <v>2.4033772409275102E-2</v>
+        <v>7.4887649419425717E-2</v>
       </c>
       <c r="C2" s="15">
         <f>Data!I9</f>
-        <v>3.7990463902214007E-2</v>
+        <v>9.417345795032335E-2</v>
       </c>
       <c r="D2" s="15">
         <f>Data!J9</f>
-        <v>4.4672141180370439E-2</v>
+        <v>0.1032871987387747</v>
       </c>
       <c r="E2" s="15">
         <f>Data!K9</f>
-        <v>5.4425050578744395E-2</v>
+        <v>0.11645411735054872</v>
       </c>
       <c r="F2" s="15">
         <f>Data!L9</f>
-        <v>6.851539693126743E-2</v>
+        <v>0.13519719887825843</v>
       </c>
       <c r="G2" s="15">
         <f>Data!M9</f>
-        <v>8.8572975946212357E-2</v>
+        <v>0.1613231604029563</v>
       </c>
       <c r="H2" s="15">
         <f>Data!N9</f>
-        <v>0.11653121412856901</v>
+        <v>0.19669319302928648</v>
       </c>
       <c r="I2" s="15">
         <f>Data!O9</f>
-        <v>0.15438183240150175</v>
+        <v>0.24273318775760036</v>
       </c>
       <c r="J2" s="15">
         <f>Data!P9</f>
-        <v>0.20365072293828868</v>
+        <v>0.29969098214894485</v>
       </c>
       <c r="K2" s="15">
         <f>Data!Q9</f>
-        <v>0.26460310474553878</v>
+        <v>0.36588418351227603</v>
       </c>
       <c r="L2" s="15">
         <f>Data!R9</f>
-        <v>0.33543859487742256</v>
+        <v>0.43744382470971288</v>
       </c>
       <c r="M2" s="15">
         <f>Data!S9</f>
-        <v>0.41201688620463761</v>
+        <v>0.50900346590714973</v>
       </c>
       <c r="N2" s="15">
         <f>Data!T9</f>
-        <v>0.48859517753185266</v>
+        <v>0.57519666727048091</v>
       </c>
       <c r="O2" s="15">
         <f>Data!U9</f>
-        <v>0.55943066766373639</v>
+        <v>0.63215446166182543</v>
       </c>
       <c r="P2" s="15">
         <f>Data!V9</f>
-        <v>0.62038304947098644</v>
+        <v>0.6781944563901392</v>
       </c>
       <c r="Q2" s="15">
         <f>Data!W9</f>
-        <v>0.66965194000777339</v>
+        <v>0.71356448901646941</v>
       </c>
       <c r="R2" s="15">
         <f>Data!X9</f>
-        <v>0.70750255828070607</v>
+        <v>0.73969045054116733</v>
       </c>
       <c r="S2" s="15">
         <f>Data!Y9</f>
-        <v>0.73546079646306284</v>
+        <v>0.75843353206887709</v>
       </c>
       <c r="T2" s="15">
         <f>Data!Z9</f>
-        <v>0.75551837547800771</v>
+        <v>0.77160045068065108</v>
       </c>
       <c r="U2" s="15">
         <f>Data!AA9</f>
-        <v>0.76960872183053075</v>
+        <v>0.78071419146910237</v>
       </c>
       <c r="V2" s="15">
         <f>Data!AB9</f>
-        <v>0.77936163122890467</v>
+        <v>0.78695797701635206</v>
       </c>
       <c r="W2" s="15">
         <f>Data!AC9</f>
-        <v>0.78604330850706117</v>
+        <v>0.7912055219996893</v>
       </c>
       <c r="X2" s="15">
         <f>Data!AD9</f>
-        <v>0.79058874405867341</v>
+        <v>0.79408121884435112</v>
       </c>
       <c r="Y2" s="15">
         <f>Data!AE9</f>
-        <v>0.79366612045484164</v>
+        <v>0.79602181690903184</v>
       </c>
       <c r="Z2" s="15">
         <f>Data!AF9</f>
-        <v>0.79574281733955832</v>
+        <v>0.79732851214641731</v>
       </c>
       <c r="AA2" s="15">
         <f>Data!AG9</f>
-        <v>0.79714115426369558</v>
+        <v>0.79820707041079275</v>
       </c>
       <c r="AB2" s="15">
         <f>Data!AH9</f>
-        <v>0.79808132793689279</v>
+        <v>0.7987971828496091</v>
       </c>
       <c r="AC2" s="15">
         <f>Data!AI9</f>
-        <v>0.79871282638349361</v>
+        <v>0.79919328638210718</v>
       </c>
       <c r="AD2" s="15">
         <f>Data!AJ9</f>
-        <v>0.79913670961152272</v>
+        <v>0.79945904527869593</v>
       </c>
       <c r="AE2" s="15">
         <f>Data!AK9</f>
-        <v>0.7994211068201339</v>
+        <v>0.79963729799948258</v>
       </c>
       <c r="AF2" s="15">
         <f>Data!AL9</f>
-        <v>0.79961186083390279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.79975683347863002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -64541,7 +64552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -64670,7 +64681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -64799,136 +64810,136 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="15">
         <f>Data!H13</f>
-        <v>2.365708179750064E-3</v>
+        <v>1.8727644408662782E-2</v>
       </c>
       <c r="C6" s="15">
         <f>Data!I13</f>
-        <v>3.2991469742441625E-3</v>
+        <v>1.9419351438747613E-2</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J13</f>
-        <v>3.6192394738005637E-3</v>
+        <v>1.9656549885530176E-2</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K13</f>
-        <v>4.0461340876531242E-3</v>
+        <v>1.997289200378036E-2</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L13</f>
-        <v>4.6131331699434466E-3</v>
+        <v>2.0393055868390707E-2</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M13</f>
-        <v>5.362124513881435E-3</v>
+        <v>2.0948081630262304E-2</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N13</f>
-        <v>6.3444307643141075E-3</v>
+        <v>2.1676000957301635E-2</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O13</f>
-        <v>7.6206462468898636E-3</v>
+        <v>2.2621716119782313E-2</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P13</f>
-        <v>9.2585595945970343E-3</v>
+        <v>2.3835460592330042E-2</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q13</f>
-        <v>1.1328007013771409E-2</v>
+        <v>2.5368985164778986E-2</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R13</f>
-        <v>1.3891543819069384E-2</v>
+        <v>2.7268645260936503E-2</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S13</f>
-        <v>1.6990554770834474E-2</v>
+        <v>2.9565108268784356E-2</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T13</f>
-        <v>2.0628221312200351E-2</v>
+        <v>3.2260731736127882E-2</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U13</f>
-        <v>2.4753513839039468E-2</v>
+        <v>3.5317701147301275E-2</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V13</f>
-        <v>2.9252875632906142E-2</v>
+        <v>3.8651867460154629E-2</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W13</f>
-        <v>3.3956231805034896E-2</v>
+        <v>4.2137199919491261E-2</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X13</f>
-        <v>3.8659587977163651E-2</v>
+        <v>4.5622532378827886E-2</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y13</f>
-        <v>4.3158949771030325E-2</v>
+        <v>4.8956698691681233E-2</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z13</f>
-        <v>4.7284242297869442E-2</v>
+        <v>5.2013668102854627E-2</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA13</f>
-        <v>5.0921908839235315E-2</v>
+        <v>5.470929157019816E-2</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB13</f>
-        <v>5.4020919791000405E-2</v>
+        <v>5.7005754578046006E-2</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC13</f>
-        <v>5.6584456596298391E-2</v>
+        <v>5.890541467420353E-2</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD13</f>
-        <v>5.8653904015472762E-2</v>
+        <v>6.0438939246652473E-2</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE13</f>
-        <v>6.0291817363179935E-2</v>
+        <v>6.1652683719200199E-2</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF13</f>
-        <v>6.1568032845755689E-2</v>
+        <v>6.2598398881680881E-2</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG13</f>
-        <v>6.2550339096188373E-2</v>
+        <v>6.3326318208720214E-2</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH13</f>
-        <v>6.3299330440126353E-2</v>
+        <v>6.3881343970591808E-2</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI13</f>
-        <v>6.3866329522416665E-2</v>
+        <v>6.4301507835202151E-2</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ13</f>
-        <v>6.4293224136269242E-2</v>
+        <v>6.461784995345235E-2</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK13</f>
-        <v>6.4613316635825632E-2</v>
+        <v>6.4855048400234899E-2</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL13</f>
-        <v>6.4852588888836923E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>6.5032356543509418E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -65057,7 +65068,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149102A2-9349-4738-B4E4-3E9E470ECE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED4E5C-C440-4788-9734-DC1C9FF2A3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2831,9 +2831,6 @@
     <t>We assume electric passenger EVs can reach a value of 1 by year 2030.</t>
   </si>
   <si>
-    <t xml:space="preserve">For passenger LDVs, we calibrate </t>
-  </si>
-  <si>
     <t>https://www.iea.org/reports/global-ev-outlook-2021/trends-and-developments-in-electric-vehicle-markets</t>
   </si>
   <si>
@@ -2898,6 +2895,9 @@
   </si>
   <si>
     <t>Total sales (thousands), AEO</t>
+  </si>
+  <si>
+    <t>For passenger LDVs, we calibrate the start year EV and PHEV values based on 2019 sales data available here: https://evadoption.com/ev-market-share/ev-market-share-state/</t>
   </si>
 </sst>
 </file>
@@ -3449,97 +3449,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.34012692312920811</c:v>
+                  <c:v>0.4815282967443778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37636777483692907</c:v>
+                  <c:v>0.5100032516575872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43847127800899277</c:v>
+                  <c:v>0.55879886129278011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53226855948228369</c:v>
+                  <c:v>0.63249672530750867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64999999999999991</c:v>
+                  <c:v>0.72500000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76773144051771625</c:v>
+                  <c:v>0.8175032746924914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86152872199100705</c:v>
+                  <c:v>0.89120113870721995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92363222516307086</c:v>
+                  <c:v>0.93999674834241298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95987307687079193</c:v>
+                  <c:v>0.96847170325562226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97948143847405045</c:v>
+                  <c:v>0.98387827308675413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98965817781470888</c:v>
+                  <c:v>0.99187428256869992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99482592105900269</c:v>
+                  <c:v>0.99593465226064493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9974210320703949</c:v>
+                  <c:v>0.9979736680553104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99871694274025491</c:v>
+                  <c:v>0.99899188358162894</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99936226416391949</c:v>
+                  <c:v>0.99949892184307965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99968316444373162</c:v>
+                  <c:v>0.99975105777721773</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99984262826083659</c:v>
+                  <c:v>0.99987635077637171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99992184266155926</c:v>
+                  <c:v>0.99993859066265389</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99996118603269402</c:v>
+                  <c:v>0.99996950331140244</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9999807250162196</c:v>
+                  <c:v>0.9999848553698869</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9999904281936407</c:v>
+                  <c:v>0.99999247929500346</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99999524674891127</c:v>
+                  <c:v>0.99999626530271613</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99999763959729537</c:v>
+                  <c:v>0.99999814539787502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99999882785671601</c:v>
+                  <c:v>0.99999907903027707</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999941793038061</c:v>
+                  <c:v>0.99999954265958468</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999971095266016</c:v>
+                  <c:v>0.99999977289137587</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999985646330924</c:v>
+                  <c:v>0.9999998872211715</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999992872178134</c:v>
+                  <c:v>0.99999994399568548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999996460428231</c:v>
+                  <c:v>0.9999999721890791</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999998242300614</c:v>
+                  <c:v>0.99999998618950503</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999999127152317</c:v>
+                  <c:v>0.99999999314191124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,23 +4729,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.1796875" style="15"/>
+    <col min="2" max="2" width="56.26953125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4753,502 +4753,502 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="47" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
         <v>55</v>
       </c>
@@ -5275,13 +5275,13 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -5410,136 +5410,136 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f>Data!H10</f>
-        <v>0.34012692312920811</v>
+        <v>0.4815282967443778</v>
       </c>
       <c r="C2">
         <f>Data!I10</f>
-        <v>0.37636777483692907</v>
+        <v>0.5100032516575872</v>
       </c>
       <c r="D2">
         <f>Data!J10</f>
-        <v>0.43847127800899277</v>
+        <v>0.55879886129278011</v>
       </c>
       <c r="E2">
         <f>Data!K10</f>
-        <v>0.53226855948228369</v>
+        <v>0.63249672530750867</v>
       </c>
       <c r="F2">
         <f>Data!L10</f>
-        <v>0.64999999999999991</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="G2">
         <f>Data!M10</f>
-        <v>0.76773144051771625</v>
+        <v>0.8175032746924914</v>
       </c>
       <c r="H2">
         <f>Data!N10</f>
-        <v>0.86152872199100705</v>
+        <v>0.89120113870721995</v>
       </c>
       <c r="I2">
         <f>Data!O10</f>
-        <v>0.92363222516307086</v>
+        <v>0.93999674834241298</v>
       </c>
       <c r="J2">
         <f>Data!P10</f>
-        <v>0.95987307687079193</v>
+        <v>0.96847170325562226</v>
       </c>
       <c r="K2">
         <f>Data!Q10</f>
-        <v>0.97948143847405045</v>
+        <v>0.98387827308675413</v>
       </c>
       <c r="L2">
         <f>Data!R10</f>
-        <v>0.98965817781470888</v>
+        <v>0.99187428256869992</v>
       </c>
       <c r="M2">
         <f>Data!S10</f>
-        <v>0.99482592105900269</v>
+        <v>0.99593465226064493</v>
       </c>
       <c r="N2">
         <f>Data!T10</f>
-        <v>0.9974210320703949</v>
+        <v>0.9979736680553104</v>
       </c>
       <c r="O2">
         <f>Data!U10</f>
-        <v>0.99871694274025491</v>
+        <v>0.99899188358162894</v>
       </c>
       <c r="P2">
         <f>Data!V10</f>
-        <v>0.99936226416391949</v>
+        <v>0.99949892184307965</v>
       </c>
       <c r="Q2">
         <f>Data!W10</f>
-        <v>0.99968316444373162</v>
+        <v>0.99975105777721773</v>
       </c>
       <c r="R2">
         <f>Data!X10</f>
-        <v>0.99984262826083659</v>
+        <v>0.99987635077637171</v>
       </c>
       <c r="S2">
         <f>Data!Y10</f>
-        <v>0.99992184266155926</v>
+        <v>0.99993859066265389</v>
       </c>
       <c r="T2">
         <f>Data!Z10</f>
-        <v>0.99996118603269402</v>
+        <v>0.99996950331140244</v>
       </c>
       <c r="U2">
         <f>Data!AA10</f>
-        <v>0.9999807250162196</v>
+        <v>0.9999848553698869</v>
       </c>
       <c r="V2">
         <f>Data!AB10</f>
-        <v>0.9999904281936407</v>
+        <v>0.99999247929500346</v>
       </c>
       <c r="W2">
         <f>Data!AC10</f>
-        <v>0.99999524674891127</v>
+        <v>0.99999626530271613</v>
       </c>
       <c r="X2">
         <f>Data!AD10</f>
-        <v>0.99999763959729537</v>
+        <v>0.99999814539787502</v>
       </c>
       <c r="Y2">
         <f>Data!AE10</f>
-        <v>0.99999882785671601</v>
+        <v>0.99999907903027707</v>
       </c>
       <c r="Z2">
         <f>Data!AF10</f>
-        <v>0.99999941793038061</v>
+        <v>0.99999954265958468</v>
       </c>
       <c r="AA2">
         <f>Data!AG10</f>
-        <v>0.99999971095266016</v>
+        <v>0.99999977289137587</v>
       </c>
       <c r="AB2">
         <f>Data!AH10</f>
-        <v>0.99999985646330924</v>
+        <v>0.9999998872211715</v>
       </c>
       <c r="AC2">
         <f>Data!AI10</f>
-        <v>0.99999992872178134</v>
+        <v>0.99999994399568548</v>
       </c>
       <c r="AD2">
         <f>Data!AJ10</f>
-        <v>0.99999996460428231</v>
+        <v>0.9999999721890791</v>
       </c>
       <c r="AE2">
         <f>Data!AK10</f>
-        <v>0.99999998242300614</v>
+        <v>0.99999998618950503</v>
       </c>
       <c r="AF2">
         <f>Data!AL10</f>
-        <v>0.99999999127152317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.99999999314191124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5926,136 +5926,136 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="15">
         <f>Data!H14</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C6" s="15">
         <f>Data!I14</f>
-        <v>2.6567428891905699E-2</v>
+        <v>4.13458184165066E-2</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J14</f>
-        <v>2.7104927691876762E-2</v>
+        <v>4.1807323105865601E-2</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K14</f>
-        <v>2.7821768426907579E-2</v>
+        <v>4.2422813523254589E-2</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L14</f>
-        <v>2.8773872355422291E-2</v>
+        <v>4.3240304516332748E-2</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M14</f>
-        <v>3.0031577391039493E-2</v>
+        <v>4.4320189293375993E-2</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N14</f>
-        <v>3.168106443476388E-2</v>
+        <v>4.5736464093908927E-2</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O14</f>
-        <v>3.3824083378786625E-2</v>
+        <v>4.7576492931377792E-2</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P14</f>
-        <v>3.6574464784378008E-2</v>
+        <v>4.9938012466443804E-2</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q14</f>
-        <v>4.0049477494613184E-2</v>
+        <v>5.2921711521105863E-2</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R14</f>
-        <v>4.4354164291207518E-2</v>
+        <v>5.6617781434112169E-2</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S14</f>
-        <v>4.9558018395815848E-2</v>
+        <v>6.1085890148301111E-2</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T14</f>
-        <v>5.5666382082527388E-2</v>
+        <v>6.6330624621902451E-2</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U14</f>
-        <v>6.2593566523832689E-2</v>
+        <v>7.227841111721961E-2</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V14</f>
-        <v>7.0148887464468651E-2</v>
+        <v>7.8765525216643539E-2</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W14</f>
-        <v>7.8046755430319747E-2</v>
+        <v>8.5546755430319726E-2</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X14</f>
-        <v>8.5944623396170816E-2</v>
+        <v>9.2327985643995927E-2</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y14</f>
-        <v>9.3499944336806806E-2</v>
+        <v>9.8815099743419857E-2</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z14</f>
-        <v>0.10042712877811208</v>
+        <v>0.10476288623873703</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA14</f>
-        <v>0.10653549246482363</v>
+        <v>0.11000762071233836</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB14</f>
-        <v>0.11173934656943196</v>
+        <v>0.11447572942652728</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC14</f>
-        <v>0.11604403336602631</v>
+        <v>0.11817179933953362</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD14</f>
-        <v>0.11951904607626149</v>
+        <v>0.12115549839419565</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE14</f>
-        <v>0.12226942748185285</v>
+        <v>0.12351701792926167</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF14</f>
-        <v>0.12441244642587562</v>
+        <v>0.12535704676673054</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG14</f>
-        <v>0.12606193346959998</v>
+        <v>0.12677332156726348</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH14</f>
-        <v>0.12731963850521719</v>
+        <v>0.12785320634430672</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI14</f>
-        <v>0.12827174243373191</v>
+        <v>0.12867069733738487</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ14</f>
-        <v>0.12898858316876272</v>
+        <v>0.12928618775477388</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK14</f>
-        <v>0.12952608196873377</v>
+        <v>0.12974769244413287</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL14</f>
-        <v>0.12992786754333543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.13009267168279431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -6329,13 +6329,13 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -7381,13 +7381,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -8433,13 +8433,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -9485,13 +9485,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -10537,13 +10537,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11589,13 +11589,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -12641,13 +12641,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -13693,13 +13693,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -14745,13 +14745,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -15794,9 +15794,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15894,27 +15894,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19369,7 +19369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19699,7 +19699,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22146,13 +22146,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -23198,13 +23198,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -23529,7 +23529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -24035,9 +24035,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -24135,27 +24135,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -24270,7 +24270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -24388,7 +24388,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -24946,7 +24946,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -26730,7 +26730,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -27060,7 +27060,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -27170,7 +27170,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -27390,7 +27390,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -27500,7 +27500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -27610,7 +27610,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -27830,7 +27830,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -27940,7 +27940,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -28490,7 +28490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -28614,64 +28614,64 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B5" t="s">
         <v>931</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>932</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>933</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>934</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>935</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>936</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>937</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>938</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>939</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>940</v>
       </c>
-      <c r="K5" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -28741,7 +28741,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -28881,7 +28881,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -28916,7 +28916,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -29021,7 +29021,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -29091,7 +29091,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -29126,7 +29126,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -29161,7 +29161,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -29231,7 +29231,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -29336,7 +29336,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -29371,7 +29371,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -29406,7 +29406,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -29441,7 +29441,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -29476,7 +29476,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -29581,7 +29581,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -29616,7 +29616,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -29651,7 +29651,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -29686,7 +29686,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -29721,7 +29721,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -29777,9 +29777,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -29877,27 +29877,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -30004,7 +30004,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30012,7 +30012,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -30028,7 +30028,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -30138,7 +30138,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -30468,7 +30468,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -30578,7 +30578,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -30908,7 +30908,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -31018,7 +31018,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -31128,7 +31128,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -31246,7 +31246,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -31356,7 +31356,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -31466,7 +31466,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -31686,7 +31686,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -31796,7 +31796,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -32016,7 +32016,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -32244,7 +32244,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -32354,7 +32354,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -32464,7 +32464,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -32684,7 +32684,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -32794,7 +32794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -33014,7 +33014,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -33454,7 +33454,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -33462,7 +33462,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -33470,7 +33470,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -33690,7 +33690,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -33910,7 +33910,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -34020,7 +34020,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -34130,7 +34130,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -34350,7 +34350,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -34460,7 +34460,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -34570,7 +34570,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -34578,7 +34578,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -34688,7 +34688,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -34908,7 +34908,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -35018,7 +35018,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -35128,7 +35128,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -35348,7 +35348,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -35458,7 +35458,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -35568,7 +35568,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -35678,7 +35678,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -35796,7 +35796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -35906,7 +35906,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -36016,7 +36016,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -36126,7 +36126,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -36236,7 +36236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -36346,7 +36346,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -36456,7 +36456,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -36566,7 +36566,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -36676,7 +36676,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -36786,7 +36786,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -36797,7 +36797,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -36907,7 +36907,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -37017,7 +37017,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -37127,7 +37127,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -37237,7 +37237,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -37347,7 +37347,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -37457,7 +37457,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -37567,7 +37567,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -37677,7 +37677,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -37787,7 +37787,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -37897,7 +37897,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -37913,7 +37913,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -38023,7 +38023,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -38133,7 +38133,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -38243,7 +38243,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -38353,7 +38353,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -38463,7 +38463,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -38573,7 +38573,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -38683,7 +38683,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -38903,7 +38903,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -39010,7 +39010,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -39128,7 +39128,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -39238,7 +39238,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -39348,7 +39348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -39458,7 +39458,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -39568,7 +39568,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -39678,7 +39678,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -39788,7 +39788,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -39898,7 +39898,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -40008,7 +40008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -40115,7 +40115,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -40123,7 +40123,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -40233,7 +40233,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -40343,7 +40343,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -40453,7 +40453,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -40563,7 +40563,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -40783,7 +40783,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -40893,7 +40893,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -41003,7 +41003,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -41113,7 +41113,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -41220,7 +41220,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -41327,7 +41327,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -41335,7 +41335,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -41343,7 +41343,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -41453,7 +41453,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -41563,7 +41563,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -41673,7 +41673,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -41783,7 +41783,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -41893,7 +41893,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -42003,7 +42003,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -42113,7 +42113,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -42223,7 +42223,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -42333,7 +42333,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -42443,7 +42443,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -42451,7 +42451,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -42561,7 +42561,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -42671,7 +42671,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -42781,7 +42781,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -42891,7 +42891,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -43001,7 +43001,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -43111,7 +43111,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -43221,7 +43221,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -43331,7 +43331,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -43551,7 +43551,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -43559,7 +43559,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -43669,7 +43669,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -43779,7 +43779,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -43889,7 +43889,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -43999,7 +43999,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -44109,7 +44109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -44219,7 +44219,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -44329,7 +44329,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -44439,7 +44439,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -44549,7 +44549,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -44659,7 +44659,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -44769,7 +44769,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -44777,7 +44777,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -44785,7 +44785,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -44793,7 +44793,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -44903,7 +44903,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -45013,7 +45013,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -45123,7 +45123,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -45233,7 +45233,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -45343,7 +45343,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -45453,7 +45453,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -45563,7 +45563,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -45673,7 +45673,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -45783,7 +45783,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -45890,7 +45890,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -45898,7 +45898,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -46008,7 +46008,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -46118,7 +46118,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -46228,7 +46228,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -46338,7 +46338,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -46448,7 +46448,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -46558,7 +46558,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -46668,7 +46668,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -46778,7 +46778,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -46888,7 +46888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -46995,7 +46995,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -47003,7 +47003,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -47113,7 +47113,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -47223,7 +47223,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -47333,7 +47333,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -47553,7 +47553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -47663,7 +47663,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -47773,7 +47773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -47883,7 +47883,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -47993,7 +47993,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -48100,7 +48100,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -48207,7 +48207,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -48215,7 +48215,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -48223,7 +48223,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -48333,7 +48333,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -48443,7 +48443,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -48553,7 +48553,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -48663,7 +48663,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -48773,7 +48773,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -48883,7 +48883,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -48993,7 +48993,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -49103,7 +49103,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -49213,7 +49213,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -49331,7 +49331,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -49441,7 +49441,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -49551,7 +49551,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -49661,7 +49661,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -49771,7 +49771,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -49881,7 +49881,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -49991,7 +49991,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -50101,7 +50101,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -50211,7 +50211,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -50321,7 +50321,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -50431,7 +50431,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -50439,7 +50439,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -50549,7 +50549,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -50659,7 +50659,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -50769,7 +50769,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -50879,7 +50879,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -50989,7 +50989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -51099,7 +51099,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -51209,7 +51209,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -51319,7 +51319,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -51429,7 +51429,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -51539,7 +51539,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -51649,7 +51649,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -51657,7 +51657,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -51767,7 +51767,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -51877,7 +51877,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -51885,7 +51885,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -51995,7 +51995,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -52105,7 +52105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -52215,7 +52215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -52325,7 +52325,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -52333,7 +52333,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -52443,7 +52443,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -52553,7 +52553,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -52561,7 +52561,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -52671,7 +52671,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -52781,7 +52781,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -52891,7 +52891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -53001,7 +53001,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -53009,7 +53009,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -53119,7 +53119,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -53229,7 +53229,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -53339,7 +53339,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -53347,7 +53347,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -53457,7 +53457,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -53567,7 +53567,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -53677,7 +53677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -53801,18 +53801,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -53838,7 +53838,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -53865,7 +53865,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -53893,7 +53893,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -53919,7 +53919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -53945,7 +53945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -53971,7 +53971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -53997,11 +53997,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -54023,19 +54023,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -54061,7 +54061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -54089,7 +54089,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -54116,7 +54116,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -54142,7 +54142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -54168,7 +54168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -54194,7 +54194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -54220,7 +54220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -54238,147 +54238,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="28.453125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="47" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -54386,14 +54386,14 @@
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -54406,7 +54406,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -54419,7 +54419,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -54434,37 +54434,37 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K45" s="15" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>947</v>
       </c>
       <c r="B58" s="15">
         <f>SUM('AEO 49'!E210,'AEO 49'!E221,'AEO 44'!G36)</f>
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B59" s="15">
         <f>SUM('AEO 49'!E214,'AEO 49'!E225,'AEO 44'!K36)</f>
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B60" s="48">
         <f>B58/B59</f>
@@ -54488,24 +54488,24 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.1796875" style="15"/>
+    <col min="8" max="9" width="9.1796875" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
@@ -54524,7 +54524,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -54541,7 +54541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -54558,7 +54558,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -54575,12 +54575,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -54594,7 +54594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
@@ -54608,7 +54608,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -54622,7 +54622,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -54764,7 +54764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -54775,7 +54775,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="29">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="15">
         <v>1</v>
@@ -54786,130 +54786,130 @@
       </c>
       <c r="H10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:H$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,H$9))</f>
-        <v>0.34012692312920811</v>
+        <v>0.4815282967443778</v>
       </c>
       <c r="I10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:I$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,I$9))</f>
-        <v>0.37636777483692907</v>
+        <v>0.5100032516575872</v>
       </c>
       <c r="J10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:J$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,J$9))</f>
-        <v>0.43847127800899277</v>
+        <v>0.55879886129278011</v>
       </c>
       <c r="K10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:K$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,K$9))</f>
-        <v>0.53226855948228369</v>
+        <v>0.63249672530750867</v>
       </c>
       <c r="L10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:L$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,L$9))</f>
-        <v>0.64999999999999991</v>
+        <v>0.72500000000000009</v>
       </c>
       <c r="M10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:M$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,M$9))</f>
-        <v>0.76773144051771625</v>
+        <v>0.8175032746924914</v>
       </c>
       <c r="N10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:N$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,N$9))</f>
-        <v>0.86152872199100705</v>
+        <v>0.89120113870721995</v>
       </c>
       <c r="O10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:O$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,O$9))</f>
-        <v>0.92363222516307086</v>
+        <v>0.93999674834241298</v>
       </c>
       <c r="P10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:P$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,P$9))</f>
-        <v>0.95987307687079193</v>
+        <v>0.96847170325562226</v>
       </c>
       <c r="Q10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Q$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Q$9))</f>
-        <v>0.97948143847405045</v>
+        <v>0.98387827308675413</v>
       </c>
       <c r="R10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:R$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,R$9))</f>
-        <v>0.98965817781470888</v>
+        <v>0.99187428256869992</v>
       </c>
       <c r="S10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:S$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,S$9))</f>
-        <v>0.99482592105900269</v>
+        <v>0.99593465226064493</v>
       </c>
       <c r="T10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:T$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,T$9))</f>
-        <v>0.9974210320703949</v>
+        <v>0.9979736680553104</v>
       </c>
       <c r="U10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:U$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,U$9))</f>
-        <v>0.99871694274025491</v>
+        <v>0.99899188358162894</v>
       </c>
       <c r="V10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:V$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,V$9))</f>
-        <v>0.99936226416391949</v>
+        <v>0.99949892184307965</v>
       </c>
       <c r="W10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:W$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,W$9))</f>
-        <v>0.99968316444373162</v>
+        <v>0.99975105777721773</v>
       </c>
       <c r="X10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:X$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,X$9))</f>
-        <v>0.99984262826083659</v>
+        <v>0.99987635077637171</v>
       </c>
       <c r="Y10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Y$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Y$9))</f>
-        <v>0.99992184266155926</v>
+        <v>0.99993859066265389</v>
       </c>
       <c r="Z10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:Z$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,Z$9))</f>
-        <v>0.99996118603269402</v>
+        <v>0.99996950331140244</v>
       </c>
       <c r="AA10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AA$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AA$9))</f>
-        <v>0.9999807250162196</v>
+        <v>0.9999848553698869</v>
       </c>
       <c r="AB10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AB$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AB$9))</f>
-        <v>0.9999904281936407</v>
+        <v>0.99999247929500346</v>
       </c>
       <c r="AC10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AC$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AC$9))</f>
-        <v>0.99999524674891127</v>
+        <v>0.99999626530271613</v>
       </c>
       <c r="AD10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AD$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AD$9))</f>
-        <v>0.99999763959729537</v>
+        <v>0.99999814539787502</v>
       </c>
       <c r="AE10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AE$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AE$9))</f>
-        <v>0.99999882785671601</v>
+        <v>0.99999907903027707</v>
       </c>
       <c r="AF10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AF$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AF$9))</f>
-        <v>0.99999941793038061</v>
+        <v>0.99999954265958468</v>
       </c>
       <c r="AG10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AG$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AG$9))</f>
-        <v>0.99999971095266016</v>
+        <v>0.99999977289137587</v>
       </c>
       <c r="AH10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AH$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AH$9))</f>
-        <v>0.99999985646330924</v>
+        <v>0.9999998872211715</v>
       </c>
       <c r="AI10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AI$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AI$9))</f>
-        <v>0.99999992872178134</v>
+        <v>0.99999994399568548</v>
       </c>
       <c r="AJ10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AJ$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AJ$9))</f>
-        <v>0.99999996460428231</v>
+        <v>0.9999999721890791</v>
       </c>
       <c r="AK10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AK$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AK$9))</f>
-        <v>0.99999998242300614</v>
+        <v>0.99999998618950503</v>
       </c>
       <c r="AL10" s="15">
         <f>IF($F10="s-curve",$D10+($E10-$D10)*$O$2/(1+EXP($O$3*(COUNT($H$9:AL$9)+$O$4))),TREND($D10:$E10,$D$9:$E$9,AL$9))</f>
-        <v>0.99999999127152317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.99999999314191124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
@@ -55050,7 +55050,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
@@ -55189,7 +55189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
@@ -55330,12 +55330,12 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="29">
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E14" s="29">
         <f>SUM(SUM(INDEX('AEO 39'!25:26,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!47:48,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11*2</f>
@@ -55347,130 +55347,130 @@
       </c>
       <c r="H14" s="29">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,I$9))</f>
-        <v>2.6567428891905699E-2</v>
+        <v>4.13458184165066E-2</v>
       </c>
       <c r="J14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,J$9))</f>
-        <v>2.7104927691876762E-2</v>
+        <v>4.1807323105865601E-2</v>
       </c>
       <c r="K14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,K$9))</f>
-        <v>2.7821768426907579E-2</v>
+        <v>4.2422813523254589E-2</v>
       </c>
       <c r="L14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,L$9))</f>
-        <v>2.8773872355422291E-2</v>
+        <v>4.3240304516332748E-2</v>
       </c>
       <c r="M14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,M$9))</f>
-        <v>3.0031577391039493E-2</v>
+        <v>4.4320189293375993E-2</v>
       </c>
       <c r="N14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,N$9))</f>
-        <v>3.168106443476388E-2</v>
+        <v>4.5736464093908927E-2</v>
       </c>
       <c r="O14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,O$9))</f>
-        <v>3.3824083378786625E-2</v>
+        <v>4.7576492931377792E-2</v>
       </c>
       <c r="P14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,P$9))</f>
-        <v>3.6574464784378008E-2</v>
+        <v>4.9938012466443804E-2</v>
       </c>
       <c r="Q14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Q$9))</f>
-        <v>4.0049477494613184E-2</v>
+        <v>5.2921711521105863E-2</v>
       </c>
       <c r="R14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,R$9))</f>
-        <v>4.4354164291207518E-2</v>
+        <v>5.6617781434112169E-2</v>
       </c>
       <c r="S14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,S$9))</f>
-        <v>4.9558018395815848E-2</v>
+        <v>6.1085890148301111E-2</v>
       </c>
       <c r="T14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,T$9))</f>
-        <v>5.5666382082527388E-2</v>
+        <v>6.6330624621902451E-2</v>
       </c>
       <c r="U14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,U$9))</f>
-        <v>6.2593566523832689E-2</v>
+        <v>7.227841111721961E-2</v>
       </c>
       <c r="V14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,V$9))</f>
-        <v>7.0148887464468651E-2</v>
+        <v>7.8765525216643539E-2</v>
       </c>
       <c r="W14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,W$9))</f>
-        <v>7.8046755430319747E-2</v>
+        <v>8.5546755430319726E-2</v>
       </c>
       <c r="X14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,X$9))</f>
-        <v>8.5944623396170816E-2</v>
+        <v>9.2327985643995927E-2</v>
       </c>
       <c r="Y14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Y$9))</f>
-        <v>9.3499944336806806E-2</v>
+        <v>9.8815099743419857E-2</v>
       </c>
       <c r="Z14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,Z$9))</f>
-        <v>0.10042712877811208</v>
+        <v>0.10476288623873703</v>
       </c>
       <c r="AA14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AA$9))</f>
-        <v>0.10653549246482363</v>
+        <v>0.11000762071233836</v>
       </c>
       <c r="AB14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AB$9))</f>
-        <v>0.11173934656943196</v>
+        <v>0.11447572942652728</v>
       </c>
       <c r="AC14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AC$9))</f>
-        <v>0.11604403336602631</v>
+        <v>0.11817179933953362</v>
       </c>
       <c r="AD14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AD$9))</f>
-        <v>0.11951904607626149</v>
+        <v>0.12115549839419565</v>
       </c>
       <c r="AE14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AE$9))</f>
-        <v>0.12226942748185285</v>
+        <v>0.12351701792926167</v>
       </c>
       <c r="AF14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AF$9))</f>
-        <v>0.12441244642587562</v>
+        <v>0.12535704676673054</v>
       </c>
       <c r="AG14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AG$9))</f>
-        <v>0.12606193346959998</v>
+        <v>0.12677332156726348</v>
       </c>
       <c r="AH14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AH$9))</f>
-        <v>0.12731963850521719</v>
+        <v>0.12785320634430672</v>
       </c>
       <c r="AI14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AI$9))</f>
-        <v>0.12827174243373191</v>
+        <v>0.12867069733738487</v>
       </c>
       <c r="AJ14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AJ$9))</f>
-        <v>0.12898858316876272</v>
+        <v>0.12928618775477388</v>
       </c>
       <c r="AK14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AK$9))</f>
-        <v>0.12952608196873377</v>
+        <v>0.12974769244413287</v>
       </c>
       <c r="AL14" s="15">
         <f>IF($F14="s-curve",$D14+($E14-$D14)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D14:$E14,$D$9:$E$9,AL$9))</f>
-        <v>0.12992786754333543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0.13009267168279431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C15" s="15" t="s">
         <v>125</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
@@ -55754,7 +55754,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -55900,7 +55900,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
@@ -56040,7 +56040,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C19" s="15" t="s">
         <v>3</v>
       </c>
@@ -56179,7 +56179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
@@ -56318,7 +56318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
@@ -56459,7 +56459,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>125</v>
       </c>
@@ -56600,7 +56600,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31" t="s">
@@ -56743,7 +56743,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -56889,7 +56889,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
@@ -57030,7 +57030,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
@@ -57171,7 +57171,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
@@ -57310,7 +57310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -57451,7 +57451,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C29" s="15" t="s">
         <v>125</v>
       </c>
@@ -57592,7 +57592,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
@@ -57735,7 +57735,7 @@
         <v>0.17108784051909381</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
@@ -57880,7 +57880,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
@@ -58021,7 +58021,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
@@ -58160,7 +58160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C34" s="15" t="s">
         <v>4</v>
       </c>
@@ -58299,7 +58299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
@@ -58440,7 +58440,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
@@ -58581,7 +58581,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
@@ -58724,7 +58724,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -58869,7 +58869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -59008,7 +59008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
@@ -59147,7 +59147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>4</v>
@@ -59287,7 +59287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>5</v>
@@ -59427,7 +59427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="30"/>
       <c r="C43" s="15" t="s">
         <v>125</v>
@@ -59567,7 +59567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -59708,7 +59708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="30" t="s">
         <v>14</v>
       </c>
@@ -59853,7 +59853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -59992,7 +59992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
@@ -60131,7 +60131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
@@ -60270,7 +60270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C49" s="15" t="s">
         <v>5</v>
       </c>
@@ -60409,7 +60409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C50" s="15" t="s">
         <v>125</v>
       </c>
@@ -60548,7 +60548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -60689,7 +60689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
@@ -60835,7 +60835,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
@@ -60974,7 +60974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C54" s="15" t="s">
         <v>3</v>
       </c>
@@ -61113,7 +61113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
@@ -61253,7 +61253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>5</v>
@@ -61393,7 +61393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="30"/>
       <c r="C57" s="15" t="s">
         <v>125</v>
@@ -61533,7 +61533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
@@ -61674,7 +61674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>15</v>
       </c>
@@ -61819,7 +61819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>2</v>
@@ -61959,7 +61959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="30"/>
       <c r="C61" s="15" t="s">
         <v>3</v>
@@ -62099,7 +62099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C62" s="15" t="s">
         <v>4</v>
       </c>
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C63" s="15" t="s">
         <v>5</v>
       </c>
@@ -62377,7 +62377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C64" s="15" t="s">
         <v>125</v>
       </c>
@@ -62516,7 +62516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31" t="s">
@@ -62657,7 +62657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>16</v>
       </c>
@@ -62802,7 +62802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
@@ -62941,7 +62941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C68" s="15" t="s">
         <v>3</v>
       </c>
@@ -63080,7 +63080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C69" s="15" t="s">
         <v>4</v>
       </c>
@@ -63219,7 +63219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C70" s="15" t="s">
         <v>5</v>
       </c>
@@ -63358,7 +63358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C71" s="15" t="s">
         <v>125</v>
       </c>
@@ -63497,7 +63497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31" t="s">
@@ -63638,7 +63638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" s="30" t="s">
         <v>16</v>
       </c>
@@ -63783,7 +63783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
@@ -63922,7 +63922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C75" s="15" t="s">
         <v>3</v>
       </c>
@@ -64061,7 +64061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C76" s="15" t="s">
         <v>4</v>
       </c>
@@ -64200,7 +64200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
@@ -64339,7 +64339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C78" s="15" t="s">
         <v>125</v>
       </c>
@@ -64478,7 +64478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
@@ -64619,7 +64619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>17</v>
       </c>
@@ -64765,7 +64765,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C81" s="15" t="s">
         <v>2</v>
       </c>
@@ -64905,7 +64905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C82" s="15" t="s">
         <v>3</v>
       </c>
@@ -65044,7 +65044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C83" s="15" t="s">
         <v>4</v>
       </c>
@@ -65184,7 +65184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C84" s="15" t="s">
         <v>5</v>
       </c>
@@ -65324,7 +65324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C85" s="15" t="s">
         <v>125</v>
       </c>
@@ -65464,7 +65464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31" t="s">
@@ -65606,7 +65606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" s="30" t="s">
         <v>17</v>
       </c>
@@ -65751,7 +65751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C88" s="15" t="s">
         <v>2</v>
       </c>
@@ -65890,7 +65890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C89" s="15" t="s">
         <v>3</v>
       </c>
@@ -66029,7 +66029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C90" s="15" t="s">
         <v>4</v>
       </c>
@@ -66168,7 +66168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C91" s="15" t="s">
         <v>5</v>
       </c>
@@ -66307,7 +66307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="C92" s="15" t="s">
         <v>125</v>
       </c>
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\OR\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F69E0D-FEB8-453B-85E8-27ADE27D64DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4549A0-97DD-4EA5-98A1-233FB6E8FA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="210" windowWidth="16800" windowHeight="16425" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6750,7 +6750,7 @@
         <v>987</v>
       </c>
       <c r="C1" s="48">
-        <v>44901</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10444,7 +10444,7 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
@@ -10845,97 +10845,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AF4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -17771,7 +17771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -26010,7 +26010,7 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -30589,7 +30589,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -31752,7 +31752,7 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -55776,10 +55776,10 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -55994,16 +55994,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
